--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_zyc_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED96D9-6C03-4544-851F-B8FA0BB29CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE12DDF-E647-4BC1-8DF8-C1DB6B3C29D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="591">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>洛维莎</t>
-  </si>
-  <si>
-    <t>Tasha</t>
   </si>
   <si>
     <t>attached_script:无尽城地城_洛维莎
@@ -348,15 +345,9 @@
     <t>雄鹰贵族</t>
   </si>
   <si>
-    <t>Nasir Noble</t>
-  </si>
-  <si>
     <t>野马贵族</t>
   </si>
   <si>
-    <t>Akhal Noble</t>
-  </si>
-  <si>
     <t>王牌骑士</t>
   </si>
   <si>
@@ -444,9 +435,6 @@
     <t>雾依</t>
   </si>
   <si>
-    <t>Shia</t>
-  </si>
-  <si>
     <t>腾越</t>
   </si>
   <si>
@@ -603,9 +591,6 @@
     <t>阿月</t>
   </si>
   <si>
-    <t>Isra</t>
-  </si>
-  <si>
     <t>旅行者</t>
   </si>
   <si>
@@ -681,9 +666,6 @@
     <t>曼玡</t>
   </si>
   <si>
-    <t>Maram</t>
-  </si>
-  <si>
     <t>齐林</t>
   </si>
   <si>
@@ -705,22 +687,13 @@
     <t>阿力</t>
   </si>
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
     <t>格尔</t>
   </si>
   <si>
-    <t>Ghazi</t>
-  </si>
-  <si>
     <t>木工</t>
   </si>
   <si>
     <t>阿洪</t>
-  </si>
-  <si>
-    <t>Fahd</t>
   </si>
   <si>
     <t>大河女神</t>
@@ -920,9 +893,6 @@
     <t>耶牙</t>
   </si>
   <si>
-    <t>Yaya</t>
-  </si>
-  <si>
     <t>剧情耶牙</t>
   </si>
   <si>
@@ -969,9 +939,6 @@
     <t>安札</t>
   </si>
   <si>
-    <t>Elam</t>
-  </si>
-  <si>
     <t>偷懒短工</t>
   </si>
   <si>
@@ -1002,9 +969,6 @@
     <t>小伊</t>
   </si>
   <si>
-    <t>Jacq</t>
-  </si>
-  <si>
     <t>小尔</t>
   </si>
   <si>
@@ -1063,9 +1027,6 @@
   </si>
   <si>
     <t>赫斐托斯</t>
-  </si>
-  <si>
-    <t>Haures</t>
   </si>
   <si>
     <t>神秘的声音</t>
@@ -1274,15 +1235,9 @@
     <t>心灵巫师？</t>
   </si>
   <si>
-    <t>Spiritmancer?</t>
-  </si>
-  <si>
     <t>巴纱</t>
   </si>
   <si>
-    <t>Basila</t>
-  </si>
-  <si>
     <t>娜塔</t>
   </si>
   <si>
@@ -1305,9 +1260,6 @@
   </si>
   <si>
     <t>孩子</t>
-  </si>
-  <si>
-    <t>Infante</t>
   </si>
   <si>
     <t>女人</t>
@@ -1346,9 +1298,6 @@
     <t>弩炮</t>
   </si>
   <si>
-    <t>Ballistra</t>
-  </si>
-  <si>
     <t>副本洛维莎</t>
   </si>
   <si>
@@ -1370,482 +1319,67 @@
 attached_script:阿拉尔山剧情_阶段3花妖雇佣兵挂载</t>
   </si>
   <si>
-    <t>默认：La estatua frente a mí brilla con una luz tenue.
-故事礼物错误: No parece ser esta.</t>
-  </si>
-  <si>
     <t>Desc: Alaf Jahim era apenas un joven cuando llegó al Gran Desierto para ganarse la vida como escolta de caravanas. Hoy en día, es muy conocido como músculo a sueldo. Ha escoltado a demasiados viajeros para contarlos; los bandidos que ha derrotado son demasiados para mencionarlos. Pero el tiempo no ha perdonado a este héroe. Alaf Jahim ahora tiene más de 60 años y no es tan enérgico como lo era en su juventud. Las tareas de escolta más difíciles se le escapan lentamente, pero su nombre todavía infunde miedo en los corazones de los bandidos. Su estatus legendario entre las arenas perdura</t>
   </si>
   <si>
-    <t>Herrero</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Líder de bandidos</t>
-  </si>
-  <si>
-    <t>Gnomo de piedra</t>
-  </si>
-  <si>
-    <t>Maestro Gran Espada del Viento</t>
-  </si>
-  <si>
-    <t>Anciano de la Cuchilla del Viento</t>
-  </si>
-  <si>
     <t>Explorador Tausiq</t>
   </si>
   <si>
-    <t>Leñador</t>
-  </si>
-  <si>
     <t>Arbóreo</t>
   </si>
   <si>
-    <t>Dríada</t>
-  </si>
-  <si>
-    <t>Bruja</t>
-  </si>
-  <si>
     <t>Mendigo</t>
   </si>
   <si>
-    <t>Cuentas de vidrio</t>
-  </si>
-  <si>
-    <t>Gusano de arena mutante</t>
-  </si>
-  <si>
-    <t>Explorador Walid</t>
-  </si>
-  <si>
     <t>Explorador Salman</t>
   </si>
   <si>
-    <t>Esfinge de la polilla</t>
-  </si>
-  <si>
-    <t>Dominador antiguo</t>
-  </si>
-  <si>
     <t>Técnico</t>
   </si>
   <si>
-    <t>Demonio</t>
-  </si>
-  <si>
     <t>Residente</t>
   </si>
   <si>
-    <t>Habitante de las Montañas Zagros A</t>
-  </si>
-  <si>
-    <t>Habitante de las Montañas Zagros B</t>
-  </si>
-  <si>
-    <t>Habitante de las Montañas Zagros C</t>
-  </si>
-  <si>
-    <t>Rehén femenina</t>
-  </si>
-  <si>
-    <t>La madre de Omar</t>
-  </si>
-  <si>
-    <t>Sirviente</t>
-  </si>
-  <si>
     <t>Perdedor</t>
   </si>
   <si>
-    <t>Asesino Dakn</t>
-  </si>
-  <si>
-    <t>Estatua</t>
-  </si>
-  <si>
-    <t>Pilar de piedra</t>
-  </si>
-  <si>
-    <t>Herrero estresado</t>
-  </si>
-  <si>
-    <t>Piedra extraña</t>
-  </si>
-  <si>
-    <t>Escorpión diminuto</t>
-  </si>
-  <si>
-    <t>Árbol muerto</t>
-  </si>
-  <si>
-    <t>Árbol</t>
-  </si>
-  <si>
-    <t>Caballero As</t>
-  </si>
-  <si>
-    <t>Niño pequeño</t>
-  </si>
-  <si>
-    <t>Niña pequeña</t>
-  </si>
-  <si>
-    <t>Llama de Obsidiana</t>
-  </si>
-  <si>
-    <t>Hombre viejo</t>
-  </si>
-  <si>
     <t>Bandido</t>
   </si>
   <si>
-    <t>Mago</t>
-  </si>
-  <si>
-    <t>Niña</t>
-  </si>
-  <si>
-    <t>Halcón</t>
-  </si>
-  <si>
-    <t>Oso</t>
-  </si>
-  <si>
     <t>Leopardo</t>
   </si>
   <si>
     <t>Lobo</t>
   </si>
   <si>
-    <t>Zorro</t>
-  </si>
-  <si>
-    <t>Gran Yeti</t>
-  </si>
-  <si>
-    <t>Jefe del Pueblo Amaranth</t>
-  </si>
-  <si>
-    <t>Poblador</t>
-  </si>
-  <si>
-    <t>Guardia</t>
-  </si>
-  <si>
-    <t>Nariz Gancho</t>
-  </si>
-  <si>
-    <t>Gusano de arena</t>
-  </si>
-  <si>
-    <t>Viejo Dientes Podridos</t>
-  </si>
-  <si>
-    <t>Luchador</t>
-  </si>
-  <si>
-    <t>Erudito</t>
-  </si>
-  <si>
-    <t>Mujer anciana</t>
-  </si>
-  <si>
-    <t>Cara de cicatriz</t>
-  </si>
-  <si>
     <t>Zaratustra</t>
   </si>
   <si>
-    <t>Nasir Rey</t>
-  </si>
-  <si>
-    <t>Monstruo Shia</t>
-  </si>
-  <si>
-    <t>Árbol Encantado</t>
-  </si>
-  <si>
-    <t>Hada de madera morada</t>
-  </si>
-  <si>
     <t>Sargento Shujae</t>
   </si>
   <si>
-    <t>Miembro de chacal</t>
-  </si>
-  <si>
-    <t>Voz de una joven mujer</t>
-  </si>
-  <si>
     <t>Soldado Shujae</t>
   </si>
   <si>
-    <t>Capitán Shujae</t>
-  </si>
-  <si>
-    <t>Jefe Shujae</t>
-  </si>
-  <si>
-    <t>Comerciante</t>
-  </si>
-  <si>
     <t>Agricultor</t>
   </si>
   <si>
-    <t>Doncella Shujae</t>
-  </si>
-  <si>
     <t>Fugitivo</t>
   </si>
   <si>
-    <t>Líder desertor</t>
-  </si>
-  <si>
-    <t>Hombre desconocido</t>
-  </si>
-  <si>
-    <t>Viajero</t>
-  </si>
-  <si>
-    <t>Caravana de camellos</t>
-  </si>
-  <si>
-    <t>Líder de la caravana</t>
-  </si>
-  <si>
-    <t>Bruja Furud</t>
-  </si>
-  <si>
-    <t>Ifrit Gigante</t>
-  </si>
-  <si>
-    <t>Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
-    <t>Valiente guerrero</t>
-  </si>
-  <si>
-    <t>Mujer rescatada</t>
-  </si>
-  <si>
     <t>Pintor Errante</t>
   </si>
   <si>
-    <t>Ifrit Ghoul A. Traducción: Ifrit Ghoul A</t>
-  </si>
-  <si>
-    <t>Ifrit Ghoul B. Traducción: Ifrit Ghoul B</t>
-  </si>
-  <si>
-    <t>Ifrit Ghoul C. Traducción: Ifrit Ghoul C</t>
-  </si>
-  <si>
-    <t>Aldeano A</t>
-  </si>
-  <si>
-    <t>Aldeano B</t>
-  </si>
-  <si>
-    <t>Aldeano C</t>
-  </si>
-  <si>
-    <t>Aldeano D</t>
-  </si>
-  <si>
-    <t>Anciano del pueblo</t>
-  </si>
-  <si>
-    <t>Lobo de montaña</t>
-  </si>
-  <si>
-    <t>Pequeño Jarah</t>
-  </si>
-  <si>
-    <t>Pequeño Hewez</t>
-  </si>
-  <si>
-    <t>Carpintero</t>
-  </si>
-  <si>
-    <t>Diosa del río</t>
-  </si>
-  <si>
-    <t>Viajero de paso</t>
-  </si>
-  <si>
-    <t>Chico Feroz A</t>
-  </si>
-  <si>
-    <t>Guardia Dakn</t>
-  </si>
-  <si>
-    <t>Guardián del Tesoro Dakn</t>
-  </si>
-  <si>
-    <t>Sombrerero</t>
-  </si>
-  <si>
     <t>Desertor</t>
   </si>
   <si>
-    <t>Caballero Oscuro</t>
-  </si>
-  <si>
-    <t>Jefe de la Legión Oscura</t>
-  </si>
-  <si>
-    <t>Líder de Qebui Keep (Puesto Este)</t>
-  </si>
-  <si>
-    <t>Viejo cascarrabias</t>
-  </si>
-  <si>
-    <t>Forma de dragón</t>
-  </si>
-  <si>
-    <t>Residente de la Aldea Misty</t>
-  </si>
-  <si>
-    <t>Anciano del Pueblo Brumoso</t>
-  </si>
-  <si>
-    <t>Anciano del Valle de los Cazadores</t>
-  </si>
-  <si>
-    <t>Jefe de la caravana</t>
-  </si>
-  <si>
-    <t>Seguidor de caravana</t>
-  </si>
-  <si>
-    <t>Líder fuera de la ley</t>
-  </si>
-  <si>
-    <t>Fuera de la ley A</t>
-  </si>
-  <si>
-    <t>Fuera de la ley B</t>
-  </si>
-  <si>
-    <t>Juventud A</t>
-  </si>
-  <si>
-    <t>Juventud B</t>
-  </si>
-  <si>
     <t>Mago Noor</t>
   </si>
   <si>
-    <t>Lagartija pequeña</t>
-  </si>
-  <si>
-    <t>Anciano del pueblo de Mahjur</t>
-  </si>
-  <si>
-    <t>Vagabundo</t>
-  </si>
-  <si>
-    <t>Jefe</t>
-  </si>
-  <si>
-    <t>Hombre habilidoso</t>
-  </si>
-  <si>
-    <t>Mujer hermosa</t>
-  </si>
-  <si>
-    <t>Aventurero vacilante</t>
-  </si>
-  <si>
-    <t>Hombre ansioso</t>
-  </si>
-  <si>
-    <t>Guerrero Oryx</t>
-  </si>
-  <si>
-    <t>Enterrador</t>
-  </si>
-  <si>
-    <t>Comerciante Extraño</t>
-  </si>
-  <si>
-    <t>Soldado moribundo</t>
-  </si>
-  <si>
-    <t>Voz misteriosa</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>Hombre misterioso</t>
-  </si>
-  <si>
-    <t>Señor Demonio</t>
-  </si>
-  <si>
-    <t>El padre de Yara</t>
-  </si>
-  <si>
-    <t>Pagan</t>
-  </si>
-  <si>
-    <t>Erudito Errante</t>
-  </si>
-  <si>
     <t>Informante</t>
-  </si>
-  <si>
-    <t>El padre de Rubí</t>
-  </si>
-  <si>
-    <t>Herbolario</t>
-  </si>
-  <si>
-    <t>Joven mago</t>
-  </si>
-  <si>
-    <t>Extranjero de cabello blanco</t>
-  </si>
-  <si>
-    <t>Hombre desgastado</t>
-  </si>
-  <si>
-    <t>Cazador</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Tirano de la taberna</t>
-  </si>
-  <si>
-    <t>Taberna del Ladrón</t>
-  </si>
-  <si>
-    <t>Héroe de la taberna</t>
-  </si>
-  <si>
-    <t>故事礼物错误:Nada sucedió…</t>
-  </si>
-  <si>
-    <t>默认:Estos bienes deben ser entregados pronto. ¿Qué debo hacer?</t>
-  </si>
-  <si>
-    <t>默认: (Tienen vendajes por todo el cuerpo, la mayoría de ellos empapados en sangre)</t>
-  </si>
-  <si>
-    <t>默认: (Su brazo izquierdo está fuertemente vendado) Oh... el dolor</t>
-  </si>
-  <si>
-    <t>默认:Mientras él aplica medicina a su abdomen inferior, notas que hay una herida que casi atraviesa todo su cuerpo. Parece que no está sanando en absoluto</t>
-  </si>
-  <si>
-    <t>默认: Mientras él aplica medicina a su abdomen inferior, notas que hay una herida que casi atraviesa todo su cuerpo. Parece que no está sanando en absoluto</t>
   </si>
   <si>
     <t>Like:音乐|浪漫|忧伤
@@ -1854,31 +1388,475 @@
 BattleVoice:BattleVoice.xiyunna</t>
   </si>
   <si>
-    <t>喜欢的礼物:Me gusta la música y algunas cosas tristes o románticas. Las emociones son muy importantes para un bailarín.
-hello: Me gusta bailar~ Un día bailaré en el gran escenario de la Ciudad de Jamal.
-refuse_recruit_0: Creo que nos llevamos muy bien, pero... No renunciaré a mi sueño por ti.
-refuse_recruit_1: Me gusta bailar. Eres admirador de mi arte? Si lo que quieres es que pelee... Lo siento.
-refuse_recruit_2: Me ayudaras a alcanzar mi sueño?... ¿Estás hablando en serio? Bueno. Está bien, siempre y cuando estuvieras bromeando.
-refuse_recruit_3: Bueno, no voy a mentirte. No estoy interesada en seguirte de momento.
-recruit_msg: Me inspiras confianza... Vamos, lograr alcanzar mi sueños con tu apoyo.</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Algunas cosas &lt;color=red&gt;tristes&lt;/color&gt; resuenan en mi alma. Aparte de eso, espero encontrar algún &lt;color=red&gt;equipo especial&lt;/color&gt; que me ayude en la batalla.
-hello:El estilo de lucha de mi familia nunca morirá mientras yo esté aquí.
-refuse_recruit_0:Sabes que llevo una gran responsabilidad. No puedo aceptar.
-refuse_recruit_1:No eres el tipo de persona que admiro.
-refuse_recruit_2:No, y no vuelvas a preguntar.
-refuse_recruit_3:No puedo controlar mi ira por mucho más tiempo. Vete ahora.
-recruit_msg:Está bien. Espero que puedas dar a conocer mi estilo de lucha a todo el mundo.</t>
-  </si>
-  <si>
-    <t>喜欢的礼物: Me gusta cuando las personas están &lt;color=red&gt;tristes y en dolor&lt;/color&gt;. También me gusta pasar tiempo mirando &lt;color=red&gt;pinturas&lt;/color&gt;.
-hello: Me gusta tu expresión melancólica...
-refuse_recruit_0: Hey, todavía no estás ahí del todo.
-refuse_recruit_1: Ah... aún no es suficiente como para hacerme doblar la rodilla.
-refuse_recruit_2: Estás delirando.
-refuse_recruit_3: Ni siquiera vales la pena ser triturado para obtener componentes arcanos.
-recruit_msg: Espero que puedas ayudarme a cosechar más dolor y sufrimiento.</t>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>Líder bandido</t>
+  </si>
+  <si>
+    <t>gnomo de pedra</t>
+  </si>
+  <si>
+    <t>Mestre Espada Grande do Vento</t>
+  </si>
+  <si>
+    <t>Ancião da Lâmina do Vento</t>
+  </si>
+  <si>
+    <t>Lenhador</t>
+  </si>
+  <si>
+    <t>Dríade</t>
+  </si>
+  <si>
+    <t>Bruxa</t>
+  </si>
+  <si>
+    <t>contas de vidro</t>
+  </si>
+  <si>
+    <t>Verme da areia mutante</t>
+  </si>
+  <si>
+    <t>tasha</t>
+  </si>
+  <si>
+    <t>Walid Explorador</t>
+  </si>
+  <si>
+    <t>Esfinge da mariposa</t>
+  </si>
+  <si>
+    <t>antigo dominador</t>
+  </si>
+  <si>
+    <t>Diabo</t>
+  </si>
+  <si>
+    <t>Zagros, um morador da montanha</t>
+  </si>
+  <si>
+    <t>Morador da montanha Zagros B</t>
+  </si>
+  <si>
+    <t>Morador da montanha Zagros C</t>
+  </si>
+  <si>
+    <t>refém feminina</t>
+  </si>
+  <si>
+    <t>A mãe de Omar</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Assassino Maldito</t>
+  </si>
+  <si>
+    <t>Estátua</t>
+  </si>
+  <si>
+    <t>pilar de pedra</t>
+  </si>
+  <si>
+    <t>Ferreiro estressado</t>
+  </si>
+  <si>
+    <t>pedra estranha</t>
+  </si>
+  <si>
+    <t>pequeno escorpião</t>
+  </si>
+  <si>
+    <t>árvore morta</t>
+  </si>
+  <si>
+    <t>Árvore</t>
+  </si>
+  <si>
+    <t>Nasir Nobre</t>
+  </si>
+  <si>
+    <t>Akhal Nobre</t>
+  </si>
+  <si>
+    <t>Ás Cavaleiro</t>
+  </si>
+  <si>
+    <t>Criança pequena</t>
+  </si>
+  <si>
+    <t>Menina</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>Homem velho</t>
+  </si>
+  <si>
+    <t>Mágico</t>
+  </si>
+  <si>
+    <t>Garotinha</t>
+  </si>
+  <si>
+    <t>Falcão</t>
+  </si>
+  <si>
+    <t>Urso</t>
+  </si>
+  <si>
+    <t>Raposa</t>
+  </si>
+  <si>
+    <t>Grande Yeti</t>
+  </si>
+  <si>
+    <t>Chefe da Aldeia Amaranto</t>
+  </si>
+  <si>
+    <t>Colono</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Xiita</t>
+  </si>
+  <si>
+    <t>Gancho de nariz</t>
+  </si>
+  <si>
+    <t>verme da areia</t>
+  </si>
+  <si>
+    <t>Dentes velhos e podres</t>
+  </si>
+  <si>
+    <t>Lutador</t>
+  </si>
+  <si>
+    <t>Estudioso</t>
+  </si>
+  <si>
+    <t>Idosa</t>
+  </si>
+  <si>
+    <t>cara de cicatriz</t>
+  </si>
+  <si>
+    <t>Rei Nasir</t>
+  </si>
+  <si>
+    <t>Monstro Xiita</t>
+  </si>
+  <si>
+    <t>Árvore Encantada</t>
+  </si>
+  <si>
+    <t>fada da madeira roxa</t>
+  </si>
+  <si>
+    <t>membro de chacal</t>
+  </si>
+  <si>
+    <t>Voz de uma jovem</t>
+  </si>
+  <si>
+    <t>Capitão Shujae</t>
+  </si>
+  <si>
+    <t>Chefe Shujae</t>
+  </si>
+  <si>
+    <t>Homem de negocios</t>
+  </si>
+  <si>
+    <t>Donzela Shujae</t>
+  </si>
+  <si>
+    <t>Líder desertou</t>
+  </si>
+  <si>
+    <t>Homem desconhecido</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Viajante</t>
+  </si>
+  <si>
+    <t>caravana de camelos</t>
+  </si>
+  <si>
+    <t>líder da caravana</t>
+  </si>
+  <si>
+    <t>Bruxa Furuda</t>
+  </si>
+  <si>
+    <t>Ifrit gigante</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Bravo guerreiro</t>
+  </si>
+  <si>
+    <t>Mulher resgatada</t>
+  </si>
+  <si>
+    <t>Ifrit Ghoul A. Tradução: Ifrit Ghoul A.</t>
+  </si>
+  <si>
+    <t>Ifrit Ghoul B. Tradução: Ifrit Ghoul B</t>
+  </si>
+  <si>
+    <t>Tradução: Ifrit Ghoul C.</t>
+  </si>
+  <si>
+    <t>Aldeão A</t>
+  </si>
+  <si>
+    <t>Aldeão B</t>
+  </si>
+  <si>
+    <t>Aldeão C</t>
+  </si>
+  <si>
+    <t>Aldeão D</t>
+  </si>
+  <si>
+    <t>Ancião da Aldeia</t>
+  </si>
+  <si>
+    <t>lobo da montanha</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Pequena Jará</t>
+  </si>
+  <si>
+    <t>Pequeno Hewez</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Gazi</t>
+  </si>
+  <si>
+    <t>Carpinteiro</t>
+  </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
+    <t>deusa do rio</t>
+  </si>
+  <si>
+    <t>viajante de passagem</t>
+  </si>
+  <si>
+    <t>Garoto Feroz A</t>
+  </si>
+  <si>
+    <t>Guarda Negro</t>
+  </si>
+  <si>
+    <t>Guardião do Tesouro Dakn</t>
+  </si>
+  <si>
+    <t>Chapeleiro</t>
+  </si>
+  <si>
+    <t>Cabelo escuro</t>
+  </si>
+  <si>
+    <t>Chefe da Legião Negra</t>
+  </si>
+  <si>
+    <t>Líder do Qebui Keep (Posto Leste)</t>
+  </si>
+  <si>
+    <t>Velho rabugento</t>
+  </si>
+  <si>
+    <t>forma de dragão</t>
+  </si>
+  <si>
+    <t>Residente da Vila Enevoada</t>
+  </si>
+  <si>
+    <t>Ancião da Cidade Enevoada</t>
+  </si>
+  <si>
+    <t>Ancião do Vale dos Caçadores</t>
+  </si>
+  <si>
+    <t>Líder da caravana</t>
+  </si>
+  <si>
+    <t>seguidor de caravana</t>
+  </si>
+  <si>
+    <t>Líder fora da lei</t>
+  </si>
+  <si>
+    <t>Fora da lei A</t>
+  </si>
+  <si>
+    <t>Fora da lei B</t>
+  </si>
+  <si>
+    <t>Já já</t>
+  </si>
+  <si>
+    <t>Juventude A</t>
+  </si>
+  <si>
+    <t>Juventude B</t>
+  </si>
+  <si>
+    <t>lagarto pequeno</t>
+  </si>
+  <si>
+    <t>Ancião da aldeia Mahjur</t>
+  </si>
+  <si>
+    <t>Morador de rua</t>
+  </si>
+  <si>
+    <t>Chefe</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>homem habilidoso</t>
+  </si>
+  <si>
+    <t>Mulher bonita</t>
+  </si>
+  <si>
+    <t>Aventureiro hesitante</t>
+  </si>
+  <si>
+    <t>Homem ansioso</t>
+  </si>
+  <si>
+    <t>Guerreiro Órix</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Agente funerário</t>
+  </si>
+  <si>
+    <t>Comerciante Estranho</t>
+  </si>
+  <si>
+    <t>soldado moribundo</t>
+  </si>
+  <si>
+    <t>Haurés</t>
+  </si>
+  <si>
+    <t>voz misteriosa</t>
+  </si>
+  <si>
+    <t>Olá</t>
+  </si>
+  <si>
+    <t>Homem misterioso</t>
+  </si>
+  <si>
+    <t>Lorde Demônio</t>
+  </si>
+  <si>
+    <t>O pai de Yara</t>
+  </si>
+  <si>
+    <t>Eles pagaram</t>
+  </si>
+  <si>
+    <t>Estudioso Errante</t>
+  </si>
+  <si>
+    <t>O pai de Rubi</t>
+  </si>
+  <si>
+    <t>Herbalista</t>
+  </si>
+  <si>
+    <t>jovem mágico</t>
+  </si>
+  <si>
+    <t>estrangeiro de cabelos brancos</t>
+  </si>
+  <si>
+    <t>homem desgastado</t>
+  </si>
+  <si>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Espiritualista?</t>
+  </si>
+  <si>
+    <t>Manjericão</t>
+  </si>
+  <si>
+    <t>Infantil</t>
+  </si>
+  <si>
+    <t>Mulheres</t>
+  </si>
+  <si>
+    <t>Tirano da Taverna</t>
+  </si>
+  <si>
+    <t>Taberna do Ladrão</t>
+  </si>
+  <si>
+    <t>herói da taverna</t>
+  </si>
+  <si>
+    <t>Balista</t>
+  </si>
+  <si>
+    <t>默认:A estátua à minha frente brilha com uma luz fraca.故事礼物错误: Não parece ser este.</t>
+  </si>
+  <si>
+    <t>故事礼物错误:Nada aconteceu…</t>
+  </si>
+  <si>
+    <t>默认:Essas mercadorias devem ser entregues em breve. O que devo fazer?</t>
+  </si>
+  <si>
+    <t>默认: (Seu braço esquerdo está fortemente enfaixado) Oh... a dor</t>
+  </si>
+  <si>
+    <t>默认: (Eles têm bandagens por todo o corpo, a maioria delas encharcadas de sangue)</t>
+  </si>
+  <si>
+    <t>Descrição: Enquanto ele aplica o remédio na parte inferior do abdômen, você percebe que há um ferimento que quase percorre todo o seu corpo. Parece que não está curando nada</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Gosto de música e de algumas coisas tristes ou românticas. As emoções são muito importantes para um dançarino. olá: Eu gosto de dançar~ Um dia irei dançar no grande palco de Jamal City. recusar_recruit_0: Acho que nos damos muito bem, mas... não vou desistir do meu sonho por você. recusar_recruit_1: Eu gosto de dançar. Você é um admirador da minha arte? Se o que você quer é que eu lute... me desculpe. recusar_recruit_2: Você vai me ajudar a realizar meu sonho?... Você está falando sério? Bem. Tudo bem, contanto que você estivesse brincando. recusar_recruit_3: Bem, não vou mentir para você. Não estou interessado em segui-lo no momento. recruta_msg: Você me inspira confiança... Vamos lá, realizar meus sonhos com o seu apoio.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ressoam em minha alma. Fora isso, espero encontrar algum &lt;color=red&gt;equipamento especial&lt;/color&gt; para me ajudar na batalha. olá: O estilo de luta da minha família nunca morrerá enquanto eu estiver aqui. recusar_recruit_0:Você sabe que carrego uma grande responsabilidade. Eu não posso aceitar. recusar_recruit_1:Você não é o tipo de pessoa que eu admiro. recusar_recruit_2:Não, e não pergunte novamente. recusar_recruit_3:Não consigo controlar minha raiva por muito mais tempo. Saia agora. recruta_msg:Ok. Espero que você possa divulgar meu estilo de luta para todos.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物: Gosto quando as pessoas estão &lt;color=red&gt;tristes e com dor&lt;/color&gt;. Também gosto de passar o tempo olhando &lt;color=red&gt;pinturas&lt;/color&gt;. olá: Gosto da sua expressão melancólica... recusar_recruit_0: Ei, você ainda não chegou lá. recusar_recruit_1: Ah... ainda não o suficiente para me fazer dobrar o joelho. recusar_recruit_2: Você está delirando. recusar_recruit_3: Você nem vale a pena trabalhar em busca de componentes misteriosos. recruta_msg: Espero que você possa me ajudar a colher mais dor e sofrimento.</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1949,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2269,11 +2247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
@@ -2304,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -2321,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -2338,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -2355,7 +2333,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -2389,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -2406,7 +2384,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -2423,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -2440,7 +2418,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -2457,7 +2435,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
@@ -2474,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
@@ -2491,7 +2469,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
@@ -2542,7 +2520,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>38</v>
@@ -2562,7 +2540,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -2596,7 +2574,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -2613,56 +2591,56 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="75">
       <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75">
       <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>445</v>
@@ -2676,13 +2654,13 @@
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
@@ -2693,13 +2671,13 @@
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -2710,13 +2688,13 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -2727,30 +2705,30 @@
     </row>
     <row r="27" spans="1:7" ht="45">
       <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -2761,13 +2739,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -2778,13 +2756,13 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C30" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
@@ -2795,13 +2773,13 @@
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -2812,13 +2790,13 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -2829,13 +2807,13 @@
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -2846,13 +2824,13 @@
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
@@ -2863,13 +2841,13 @@
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
@@ -2880,13 +2858,13 @@
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" t="s">
         <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>6</v>
@@ -2897,13 +2875,13 @@
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>6</v>
@@ -2914,13 +2892,13 @@
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -2931,13 +2909,13 @@
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
@@ -2948,13 +2926,13 @@
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -2965,13 +2943,13 @@
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -2982,36 +2960,36 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="165">
+      <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="s">
-        <v>459</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="180">
-      <c r="A43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>460</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>429</v>
+        <v>582</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>6</v>
@@ -3019,19 +2997,19 @@
     </row>
     <row r="44" spans="1:6" ht="60">
       <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>461</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>6</v>
@@ -3039,19 +3017,19 @@
     </row>
     <row r="45" spans="1:6" ht="90">
       <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E45" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>6</v>
@@ -3059,13 +3037,13 @@
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -3076,13 +3054,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -3093,13 +3071,13 @@
     </row>
     <row r="48" spans="1:6" ht="30">
       <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -3110,13 +3088,13 @@
     </row>
     <row r="49" spans="1:6" ht="30">
       <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="C49" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -3127,13 +3105,13 @@
     </row>
     <row r="50" spans="1:6" ht="30">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>463</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -3144,13 +3122,13 @@
     </row>
     <row r="51" spans="1:6" ht="30">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
@@ -3161,13 +3139,13 @@
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
@@ -3178,13 +3156,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
@@ -3195,13 +3173,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>6</v>
@@ -3212,13 +3190,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>6</v>
@@ -3229,13 +3207,13 @@
     </row>
     <row r="56" spans="1:6" ht="30">
       <c r="A56" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>6</v>
@@ -3246,13 +3224,13 @@
     </row>
     <row r="57" spans="1:6" ht="30">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>6</v>
@@ -3263,7 +3241,7 @@
     </row>
     <row r="58" spans="1:6" ht="30">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -3280,13 +3258,13 @@
     </row>
     <row r="59" spans="1:6" ht="30">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>6</v>
@@ -3297,7 +3275,7 @@
     </row>
     <row r="60" spans="1:6" ht="45">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>32</v>
@@ -3314,13 +3292,13 @@
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>6</v>
@@ -3331,13 +3309,13 @@
     </row>
     <row r="62" spans="1:6" ht="45">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>6</v>
@@ -3348,13 +3326,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>6</v>
@@ -3365,13 +3343,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>6</v>
@@ -3382,13 +3360,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>6</v>
@@ -3399,13 +3377,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>6</v>
@@ -3416,13 +3394,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>6</v>
@@ -3433,30 +3411,30 @@
     </row>
     <row r="68" spans="1:6" ht="45">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>6</v>
@@ -3467,13 +3445,13 @@
     </row>
     <row r="70" spans="1:6" ht="30">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>6</v>
@@ -3484,13 +3462,13 @@
     </row>
     <row r="71" spans="1:6" ht="30">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>6</v>
@@ -3501,13 +3479,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>6</v>
@@ -3518,13 +3496,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>6</v>
@@ -3535,13 +3513,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>6</v>
@@ -3552,13 +3530,13 @@
     </row>
     <row r="75" spans="1:6" ht="30">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>6</v>
@@ -3569,13 +3547,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>6</v>
@@ -3586,13 +3564,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>6</v>
@@ -3603,13 +3581,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>6</v>
@@ -3620,13 +3598,13 @@
     </row>
     <row r="79" spans="1:6" ht="30">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>6</v>
@@ -3637,13 +3615,13 @@
     </row>
     <row r="80" spans="1:6" ht="30">
       <c r="A80" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>6</v>
@@ -3654,13 +3632,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>6</v>
@@ -3671,13 +3649,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>6</v>
@@ -3688,13 +3666,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>6</v>
@@ -3705,13 +3683,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>6</v>
@@ -3722,13 +3700,13 @@
     </row>
     <row r="85" spans="1:6" ht="30">
       <c r="A85" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>6</v>
@@ -3739,13 +3717,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>6</v>
@@ -3756,13 +3734,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>6</v>
@@ -3773,30 +3751,30 @@
     </row>
     <row r="88" spans="1:6" ht="45">
       <c r="A88" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>6</v>
@@ -3807,13 +3785,13 @@
     </row>
     <row r="90" spans="1:6" ht="30">
       <c r="A90" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>6</v>
@@ -3824,13 +3802,13 @@
     </row>
     <row r="91" spans="1:6" ht="45">
       <c r="A91" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>6</v>
@@ -3841,13 +3819,13 @@
     </row>
     <row r="92" spans="1:6" ht="30">
       <c r="A92" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>6</v>
@@ -3858,13 +3836,13 @@
     </row>
     <row r="93" spans="1:6" ht="30">
       <c r="A93" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>6</v>
@@ -3875,13 +3853,13 @@
     </row>
     <row r="94" spans="1:6" ht="30">
       <c r="A94" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>6</v>
@@ -3892,13 +3870,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>6</v>
@@ -3909,13 +3887,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>6</v>
@@ -3926,13 +3904,13 @@
     </row>
     <row r="97" spans="1:6" ht="30">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>6</v>
@@ -3943,13 +3921,13 @@
     </row>
     <row r="98" spans="1:6" ht="30">
       <c r="A98" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>6</v>
@@ -3960,13 +3938,13 @@
     </row>
     <row r="99" spans="1:6" ht="45">
       <c r="A99" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>6</v>
@@ -3977,13 +3955,13 @@
     </row>
     <row r="100" spans="1:6" ht="45">
       <c r="A100" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>6</v>
@@ -3994,13 +3972,13 @@
     </row>
     <row r="101" spans="1:6" ht="30">
       <c r="A101" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>6</v>
@@ -4011,68 +3989,68 @@
     </row>
     <row r="102" spans="1:6" ht="30">
       <c r="A102" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30">
       <c r="A103" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>505</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30">
       <c r="A104" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>505</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30">
       <c r="A105" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30">
       <c r="A106" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30">
       <c r="A107" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>6</v>
@@ -4083,13 +4061,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>6</v>
@@ -4100,13 +4078,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>499</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>6</v>
@@ -4117,13 +4095,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>6</v>
@@ -4134,13 +4112,13 @@
     </row>
     <row r="111" spans="1:6" ht="30">
       <c r="A111" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C111" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>6</v>
@@ -4151,13 +4129,13 @@
     </row>
     <row r="112" spans="1:6" ht="30">
       <c r="A112" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C112" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>6</v>
@@ -4168,13 +4146,13 @@
     </row>
     <row r="113" spans="1:6" ht="45">
       <c r="A113" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>6</v>
@@ -4185,13 +4163,13 @@
     </row>
     <row r="114" spans="1:6" ht="30">
       <c r="A114" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>6</v>
@@ -4202,46 +4180,46 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30">
       <c r="A116" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C116" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30">
       <c r="A118" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C118" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>6</v>
@@ -4252,13 +4230,13 @@
     </row>
     <row r="119" spans="1:6" ht="30">
       <c r="A119" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C119" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>6</v>
@@ -4269,13 +4247,13 @@
     </row>
     <row r="120" spans="1:6" ht="30">
       <c r="A120" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>6</v>
@@ -4286,13 +4264,13 @@
     </row>
     <row r="121" spans="1:6" ht="30">
       <c r="A121" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C121" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>6</v>
@@ -4303,13 +4281,13 @@
     </row>
     <row r="122" spans="1:6" ht="30">
       <c r="A122" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>6</v>
@@ -4320,13 +4298,13 @@
     </row>
     <row r="123" spans="1:6" ht="30">
       <c r="A123" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>6</v>
@@ -4337,13 +4315,13 @@
     </row>
     <row r="124" spans="1:6" ht="30">
       <c r="A124" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C124" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>6</v>
@@ -4354,13 +4332,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C125" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>6</v>
@@ -4371,13 +4349,13 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>6</v>
@@ -4388,13 +4366,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>6</v>
@@ -4405,13 +4383,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>6</v>
@@ -4422,13 +4400,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>6</v>
@@ -4439,24 +4417,24 @@
     </row>
     <row r="130" spans="1:6" ht="30">
       <c r="A130" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C131" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>6</v>
@@ -4467,13 +4445,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>6</v>
@@ -4484,13 +4462,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>6</v>
@@ -4501,13 +4479,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>6</v>
@@ -4518,13 +4496,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>6</v>
@@ -4535,13 +4513,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>6</v>
@@ -4552,13 +4530,13 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>520</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>6</v>
@@ -4569,13 +4547,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>521</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>6</v>
@@ -4586,13 +4564,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>6</v>
@@ -4603,24 +4581,24 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30">
       <c r="A141" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>6</v>
@@ -4631,13 +4609,13 @@
     </row>
     <row r="142" spans="1:6" ht="30">
       <c r="A142" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>6</v>
@@ -4648,13 +4626,13 @@
     </row>
     <row r="143" spans="1:6" ht="30">
       <c r="A143" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C143" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>6</v>
@@ -4665,13 +4643,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C144" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>6</v>
@@ -4682,13 +4660,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>6</v>
@@ -4699,13 +4677,13 @@
     </row>
     <row r="146" spans="1:6" ht="30">
       <c r="A146" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>6</v>
@@ -4716,13 +4694,13 @@
     </row>
     <row r="147" spans="1:6" ht="45">
       <c r="A147" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>6</v>
@@ -4733,13 +4711,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>6</v>
@@ -4750,13 +4728,13 @@
     </row>
     <row r="149" spans="1:6" ht="30">
       <c r="A149" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C149" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>6</v>
@@ -4767,13 +4745,13 @@
     </row>
     <row r="150" spans="1:6" ht="30">
       <c r="A150" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C150" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>6</v>
@@ -4784,13 +4762,13 @@
     </row>
     <row r="151" spans="1:6" ht="30">
       <c r="A151" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>6</v>
@@ -4801,13 +4779,13 @@
     </row>
     <row r="152" spans="1:6" ht="30">
       <c r="A152" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C152" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>6</v>
@@ -4818,13 +4796,13 @@
     </row>
     <row r="153" spans="1:6" ht="45">
       <c r="A153" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>6</v>
@@ -4835,13 +4813,13 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C154" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>6</v>
@@ -4852,13 +4830,13 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>6</v>
@@ -4869,13 +4847,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>6</v>
@@ -4886,13 +4864,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>6</v>
@@ -4903,13 +4881,13 @@
     </row>
     <row r="158" spans="1:6" ht="30">
       <c r="A158" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C158" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>6</v>
@@ -4920,13 +4898,13 @@
     </row>
     <row r="159" spans="1:6" ht="30">
       <c r="A159" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C159" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>6</v>
@@ -4937,13 +4915,13 @@
     </row>
     <row r="160" spans="1:6" ht="30">
       <c r="A160" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C160" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>6</v>
@@ -4954,13 +4932,13 @@
     </row>
     <row r="161" spans="1:7" ht="45">
       <c r="A161" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>6</v>
@@ -4971,13 +4949,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C162" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>6</v>
@@ -4988,13 +4966,13 @@
     </row>
     <row r="163" spans="1:7" ht="30">
       <c r="A163" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C163" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>6</v>
@@ -5005,13 +4983,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C164" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>6</v>
@@ -5022,13 +5000,13 @@
     </row>
     <row r="165" spans="1:7" ht="30">
       <c r="A165" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C165" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>6</v>
@@ -5039,16 +5017,16 @@
     </row>
     <row r="166" spans="1:7" ht="105">
       <c r="A166" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C166" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E166" t="s">
         <v>585</v>
@@ -5059,19 +5037,19 @@
     </row>
     <row r="167" spans="1:7" ht="120">
       <c r="A167" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E167" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>6</v>
@@ -5079,19 +5057,19 @@
     </row>
     <row r="168" spans="1:7" ht="255">
       <c r="A168" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C168" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E168" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>6</v>
@@ -5099,16 +5077,16 @@
     </row>
     <row r="169" spans="1:7" ht="255">
       <c r="A169" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C169" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E169" t="s">
         <v>587</v>
@@ -5119,13 +5097,13 @@
     </row>
     <row r="170" spans="1:7" ht="30">
       <c r="A170" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C170" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>6</v>
@@ -5136,13 +5114,13 @@
     </row>
     <row r="171" spans="1:7" ht="30">
       <c r="A171" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>6</v>
@@ -5153,16 +5131,16 @@
     </row>
     <row r="172" spans="1:7" ht="255">
       <c r="A172" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C172" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E172" t="s">
         <v>587</v>
@@ -5173,33 +5151,33 @@
     </row>
     <row r="173" spans="1:7" ht="409.5">
       <c r="A173" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="30">
       <c r="A174" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C174" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>6</v>
@@ -5210,13 +5188,13 @@
     </row>
     <row r="175" spans="1:7" ht="30">
       <c r="A175" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C175" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>6</v>
@@ -5227,13 +5205,13 @@
     </row>
     <row r="176" spans="1:7" ht="30">
       <c r="A176" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>6</v>
@@ -5244,13 +5222,13 @@
     </row>
     <row r="177" spans="1:6" ht="30">
       <c r="A177" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C177" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>6</v>
@@ -5261,13 +5239,13 @@
     </row>
     <row r="178" spans="1:6" ht="30">
       <c r="A178" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>6</v>
@@ -5278,13 +5256,13 @@
     </row>
     <row r="179" spans="1:6" ht="30">
       <c r="A179" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C179" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>6</v>
@@ -5295,24 +5273,24 @@
     </row>
     <row r="180" spans="1:6" ht="30">
       <c r="A180" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C180" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="30">
       <c r="A181" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C181" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>6</v>
@@ -5323,13 +5301,13 @@
     </row>
     <row r="182" spans="1:6" ht="30">
       <c r="A182" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C182" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>6</v>
@@ -5340,13 +5318,13 @@
     </row>
     <row r="183" spans="1:6" ht="30">
       <c r="A183" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C183" t="s">
-        <v>294</v>
+        <v>543</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>6</v>
@@ -5357,30 +5335,30 @@
     </row>
     <row r="184" spans="1:6" ht="105">
       <c r="A184" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>543</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C185" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>6</v>
@@ -5391,13 +5369,13 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C186" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>6</v>
@@ -5408,13 +5386,13 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C187" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>6</v>
@@ -5425,13 +5403,13 @@
     </row>
     <row r="188" spans="1:6" ht="30">
       <c r="A188" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C188" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>6</v>
@@ -5442,13 +5420,13 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C189" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>6</v>
@@ -5459,13 +5437,13 @@
     </row>
     <row r="190" spans="1:6" ht="30">
       <c r="A190" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>6</v>
@@ -5476,13 +5454,13 @@
     </row>
     <row r="191" spans="1:6" ht="30">
       <c r="A191" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C191" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>6</v>
@@ -5493,13 +5471,13 @@
     </row>
     <row r="192" spans="1:6" ht="30">
       <c r="A192" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C192" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>6</v>
@@ -5510,13 +5488,13 @@
     </row>
     <row r="193" spans="1:6" ht="30">
       <c r="A193" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C193" t="s">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>6</v>
@@ -5527,13 +5505,13 @@
     </row>
     <row r="194" spans="1:6" ht="30">
       <c r="A194" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>6</v>
@@ -5544,13 +5522,13 @@
     </row>
     <row r="195" spans="1:6" ht="30">
       <c r="A195" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C195" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>6</v>
@@ -5561,13 +5539,13 @@
     </row>
     <row r="196" spans="1:6" ht="30">
       <c r="A196" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C196" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>6</v>
@@ -5578,13 +5556,13 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>6</v>
@@ -5595,13 +5573,13 @@
     </row>
     <row r="198" spans="1:6" ht="30">
       <c r="A198" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C198" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>6</v>
@@ -5612,13 +5590,13 @@
     </row>
     <row r="199" spans="1:6" ht="30">
       <c r="A199" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>6</v>
@@ -5629,13 +5607,13 @@
     </row>
     <row r="200" spans="1:6" ht="30">
       <c r="A200" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C200" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>6</v>
@@ -5646,13 +5624,13 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C201" t="s">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>6</v>
@@ -5663,13 +5641,13 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C202" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>6</v>
@@ -5680,13 +5658,13 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C203" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>6</v>
@@ -5697,13 +5675,13 @@
     </row>
     <row r="204" spans="1:6" ht="30">
       <c r="A204" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C204" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>6</v>
@@ -5714,13 +5692,13 @@
     </row>
     <row r="205" spans="1:6" ht="30">
       <c r="A205" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>6</v>
@@ -5731,13 +5709,13 @@
     </row>
     <row r="206" spans="1:6" ht="30">
       <c r="A206" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>6</v>
@@ -5748,13 +5726,13 @@
     </row>
     <row r="207" spans="1:6" ht="30">
       <c r="A207" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C207" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>6</v>
@@ -5765,13 +5743,13 @@
     </row>
     <row r="208" spans="1:6" ht="30">
       <c r="A208" s="3" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C208" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>6</v>
@@ -5782,13 +5760,13 @@
     </row>
     <row r="209" spans="1:7" ht="30">
       <c r="A209" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C209" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>6</v>
@@ -5799,13 +5777,13 @@
     </row>
     <row r="210" spans="1:7" ht="30">
       <c r="A210" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C210" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>6</v>
@@ -5816,13 +5794,13 @@
     </row>
     <row r="211" spans="1:7" ht="30">
       <c r="A211" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C211" t="s">
-        <v>342</v>
+        <v>560</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>6</v>
@@ -5833,13 +5811,13 @@
     </row>
     <row r="212" spans="1:7" ht="30">
       <c r="A212" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C212" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>6</v>
@@ -5850,13 +5828,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C213" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>6</v>
@@ -5867,13 +5845,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C214" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>6</v>
@@ -5884,13 +5862,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C215" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>6</v>
@@ -5901,53 +5879,53 @@
     </row>
     <row r="216" spans="1:7" ht="409.5">
       <c r="A216" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C216" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>588</v>
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="60">
       <c r="A217" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C217" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="30">
       <c r="A218" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C218" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>6</v>
@@ -5958,51 +5936,51 @@
     </row>
     <row r="219" spans="1:7" ht="60">
       <c r="A219" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C219" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="409.5">
       <c r="A220" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C220" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C221" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>6</v>
@@ -6013,13 +5991,13 @@
     </row>
     <row r="222" spans="1:7" ht="30">
       <c r="A222" s="3" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C222" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>6</v>
@@ -6030,13 +6008,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C223" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>6</v>
@@ -6047,13 +6025,13 @@
     </row>
     <row r="224" spans="1:7" ht="30">
       <c r="A224" s="3" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C224" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>6</v>
@@ -6064,34 +6042,34 @@
     </row>
     <row r="225" spans="1:7" ht="409.5">
       <c r="A225" s="3" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C225" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C226" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>6</v>
@@ -6102,13 +6080,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C227" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>6</v>
@@ -6119,13 +6097,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>6</v>
@@ -6136,13 +6114,13 @@
     </row>
     <row r="229" spans="1:7" ht="30">
       <c r="A229" s="3" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C229" t="s">
-        <v>571</v>
+        <v>432</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>6</v>
@@ -6153,13 +6131,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C230" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>6</v>
@@ -6170,13 +6148,13 @@
     </row>
     <row r="231" spans="1:7" ht="30">
       <c r="A231" s="3" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>6</v>
@@ -6187,13 +6165,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C232" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>6</v>
@@ -6204,13 +6182,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C233" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>6</v>
@@ -6221,13 +6199,13 @@
     </row>
     <row r="234" spans="1:7" ht="30">
       <c r="A234" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C234" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>6</v>
@@ -6238,13 +6216,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C235" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>6</v>
@@ -6255,13 +6233,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C236" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>6</v>
@@ -6272,30 +6250,30 @@
     </row>
     <row r="237" spans="1:7" ht="30">
       <c r="A237" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C237" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="30">
       <c r="A238" s="3" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C238" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>6</v>
@@ -6306,13 +6284,13 @@
     </row>
     <row r="239" spans="1:7" ht="45">
       <c r="A239" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C239" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>6</v>
@@ -6323,13 +6301,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C240" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>6</v>
@@ -6340,13 +6318,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C241" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>6</v>
@@ -6357,13 +6335,13 @@
     </row>
     <row r="242" spans="1:7" ht="30">
       <c r="A242" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C242" t="s">
-        <v>402</v>
+        <v>574</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>6</v>
@@ -6374,13 +6352,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C243" t="s">
-        <v>404</v>
+        <v>575</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>6</v>
@@ -6391,30 +6369,30 @@
     </row>
     <row r="244" spans="1:7" ht="45">
       <c r="A244" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C244" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C245" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>6</v>
@@ -6425,13 +6403,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C246" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>6</v>
@@ -6442,13 +6420,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>6</v>
@@ -6459,13 +6437,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C248" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>6</v>
@@ -6476,110 +6454,110 @@
     </row>
     <row r="249" spans="1:7" ht="270">
       <c r="A249" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C249" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="255">
       <c r="A250" s="3" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C250" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:7" ht="240">
       <c r="A251" s="3" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C251" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="240">
       <c r="A252" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C252" t="s">
-        <v>422</v>
+        <v>581</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="135">
       <c r="A253" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C253" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="150">
       <c r="A254" s="3" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C254" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="150">
       <c r="A255" s="3" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>32</v>
@@ -6591,7 +6569,7 @@
         <v>6</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_zyc_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E579A44-97AE-44D7-8F18-2FC567291A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F1DC32-C1A7-4BFC-97E7-451DC00F708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="596">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -237,9 +237,6 @@
     <t>住民</t>
   </si>
   <si>
-    <t>Resident</t>
-  </si>
-  <si>
     <t>花卉乡住民乙</t>
   </si>
   <si>
@@ -640,21 +637,12 @@
     <t>火魔人甲</t>
   </si>
   <si>
-    <t>Ifrit Ghoul A</t>
-  </si>
-  <si>
     <t>火魔人乙</t>
   </si>
   <si>
-    <t>Ifrit Ghoul B</t>
-  </si>
-  <si>
     <t>火魔人丙</t>
   </si>
   <si>
-    <t>Ifrit Ghoul C</t>
-  </si>
-  <si>
     <t>村民甲</t>
   </si>
   <si>
@@ -866,6 +854,11 @@
   </si>
   <si>
     <t>Desc:赫连千百十几岁便来到了大沙漠做商队护卫谋生，时至今日，他已经成为了沙漠里大有名气的雇佣护卫。他护送过的商队不计其数，击退的劫匪也不胜枚举。可英雄迟暮，已经年过六十的赫连千百不如年轻时健壮有活力，渐渐的也不太能胜任一些艰巨的护送任务，但他的名字仍能够震慑盗匪，他仍是沙漠中的传奇人物。
+Voice:NpcVoice.helianqianbai
+BattleVoice:BattleVoice.helianqianbai</t>
+  </si>
+  <si>
+    <t>Desc:Alaf Jahim was a mere youth when he came to the Great Desert to earn his living as a caravan escort. Today, he is well renowned as muscle for hire. He has escorted too many travelers to count; the bandits he's defeated too numerous to mention. But time has not spared this hero. Alaf Jahim is now over 60 years old and isn't as energetic as he was in his youth. The more difficult escorting tasks are slowly moving beyond his grasp, but his name still strikes fear in the hearts of bandits. His legendary status amongst the sands remains.
 Voice:NpcVoice.helianqianbai
 BattleVoice:BattleVoice.helianqianbai</t>
   </si>
@@ -1108,6 +1101,12 @@
 BattleVoice:BattleVoice.xiyunna</t>
   </si>
   <si>
+    <t>Like:音乐|浪漫|忧伤
+Desc:She often dances by the river, her reflection in the river is her only audience. Ever since she was a girl, Umara dreamed of becoming a royal dancer. When the old king was toppled, the Nasir occupied Jamal City, the old capital. When the war didn't end and the fighting continued, Jamal City continued to be on constant alert. Umara didn't even know what Jamal City looked like, nor did she have the papers to go there. Still, Umara practices every day so that she can join the most famous group of entertainers in the city and become a professional dancer. When she stands on the greatest stage in the land, the audience beneath her will know the greatest happiness.
+Voice:NpcVoice.xiyunna
+BattleVoice:BattleVoice.xiyunna</t>
+  </si>
+  <si>
     <t>希云娜盗贼</t>
   </si>
   <si>
@@ -1153,6 +1152,12 @@
 BattleVoice:BattleVoice.hanjing</t>
   </si>
   <si>
+    <t>Like:特殊装备|忧伤
+Desc: Mathali was born in a family steeped in warcraft. Members of the family could use mana to empower their blades. When the war began, Mathali's family, who only excelled in duels, were ignored. Many members of the family had to find new careers. Their unique fighting techniques were on the verge of being lost forever. Mathali is the only youth in his generation who has learned how to use mana to fight. On his shoulders rest not only the burden of reviving the family's glory, but also the mission of passing on these secret arts.
+Voice:NpcVoice.hanjing
+BattleVoice:BattleVoice.hanjing</t>
+  </si>
+  <si>
     <t>小露</t>
   </si>
   <si>
@@ -1197,6 +1202,14 @@
 BattleVoice:BattleVoice.sajia</t>
   </si>
   <si>
+    <t>Like:绘画|忧伤
+WildMonsterKiller:1
+Robber:100
+Desc:Sanjay is a wizard from beyond the river. He came to this land for some gruesome research - how to draw arcane power from the chaos of war, turning pain and tragedy into sustenance.
+Voice:NpcVoice.sajia
+BattleVoice:BattleVoice.sajia</t>
+  </si>
+  <si>
     <t>老婆婆</t>
   </si>
   <si>
@@ -1380,10 +1393,10 @@
     <t>Gnomo de Pedra</t>
   </si>
   <si>
-    <t>Grande Mestre da Lâmina do Vento</t>
-  </si>
-  <si>
-    <t>Ancião da Lâmina do Vento</t>
+    <t>Grande Mestre da Lâmina de Vento</t>
+  </si>
+  <si>
+    <t>Ancião da Lâmina de Vento</t>
   </si>
   <si>
     <t>Explorador Tausiq</t>
@@ -1404,22 +1417,22 @@
     <t>Mendigo</t>
   </si>
   <si>
-    <t>Contas de Vidro</t>
+    <t>Esferas de Vidro</t>
   </si>
   <si>
     <t>Verme de Areia Mutante</t>
   </si>
   <si>
+    <t>Explorador Salman</t>
+  </si>
+  <si>
     <t>Explorador Walid</t>
   </si>
   <si>
-    <t>Explorador Salman</t>
-  </si>
-  <si>
-    <t>Mariposa Esfinge</t>
-  </si>
-  <si>
-    <t>Dominador Ancestral</t>
+    <t>Mariposa com Asas de Flor</t>
+  </si>
+  <si>
+    <t>Antigo Dominador</t>
   </si>
   <si>
     <t>Técnico</t>
@@ -1428,16 +1441,16 @@
     <t>Demônio</t>
   </si>
   <si>
-    <t>Habitante</t>
-  </si>
-  <si>
-    <t>Habitante das Montanhas de Zagros A</t>
-  </si>
-  <si>
-    <t>Habitante das Montanhas de Zagros B</t>
-  </si>
-  <si>
-    <t>Habitante das Montanhas de Zagros C</t>
+    <t>Residente</t>
+  </si>
+  <si>
+    <t>Morador das Montanhas de Zagros A</t>
+  </si>
+  <si>
+    <t>Morador das Montanhas de Zagros B</t>
+  </si>
+  <si>
+    <t>Morador das Montanhas de Zagros C</t>
   </si>
   <si>
     <t>Refém Feminina</t>
@@ -1467,7 +1480,7 @@
     <t>Pedra Estranha</t>
   </si>
   <si>
-    <t>Escorpião Pequeno</t>
+    <t>Pequeno Escorpião</t>
   </si>
   <si>
     <t>Árvore Morta</t>
@@ -1479,16 +1492,16 @@
     <t>Nobre de Nasir</t>
   </si>
   <si>
-    <t>Nobre de Akhal</t>
+    <t>Nobre dos Akhal</t>
   </si>
   <si>
     <t>Cavaleiro Ás</t>
   </si>
   <si>
-    <t>Garotinha</t>
-  </si>
-  <si>
-    <t>Garotinho</t>
+    <t>Menino Pequeno</t>
+  </si>
+  <si>
+    <t>Menina Pequena</t>
   </si>
   <si>
     <t>Chama Obsidiana</t>
@@ -1503,6 +1516,9 @@
     <t>Mago</t>
   </si>
   <si>
+    <t>Mago Noor</t>
+  </si>
+  <si>
     <t>Garota</t>
   </si>
   <si>
@@ -1521,7 +1537,7 @@
     <t>Raposa</t>
   </si>
   <si>
-    <t>Yeti Grande</t>
+    <t>Yeti Gigante</t>
   </si>
   <si>
     <t>Chefe da Cidade de Amaranth</t>
@@ -1533,43 +1549,46 @@
     <t>Guarda</t>
   </si>
   <si>
-    <t>Nariz de Gancho</t>
+    <t>Narigudo</t>
   </si>
   <si>
     <t>Verme de Areia</t>
   </si>
   <si>
-    <t>Dentes Podres</t>
+    <t>Velho com Dentes Podres</t>
   </si>
   <si>
     <t>Lutador</t>
   </si>
   <si>
+    <t>Velha</t>
+  </si>
+  <si>
     <t>Erudito</t>
   </si>
   <si>
-    <t>Velha</t>
-  </si>
-  <si>
-    <t>Cara de Cicatriz</t>
-  </si>
-  <si>
-    <t>Rei Nasir</t>
-  </si>
-  <si>
-    <t>Shia Monstruoso</t>
+    <t>Velha Senhora</t>
+  </si>
+  <si>
+    <t>Rosto Cicatrizado</t>
+  </si>
+  <si>
+    <t>Rei de Nasir</t>
+  </si>
+  <si>
+    <t>Monstro Shia</t>
   </si>
   <si>
     <t>Árvore Encantada</t>
   </si>
   <si>
-    <t>Espírito de Madeira Púrpura</t>
+    <t>Dríade Roxa</t>
   </si>
   <si>
     <t>Sargento Shujae</t>
   </si>
   <si>
-    <t>Membro do Jackal</t>
+    <t>Membro de Jackal</t>
   </si>
   <si>
     <t>Voz de Jovem Mulher</t>
@@ -1584,7 +1603,7 @@
     <t>Chefe Shujae</t>
   </si>
   <si>
-    <t>Mercador</t>
+    <t>Comerciante</t>
   </si>
   <si>
     <t>Fazendeiro</t>
@@ -1605,7 +1624,7 @@
     <t>Viajante</t>
   </si>
   <si>
-    <t>Camelo de Caravana</t>
+    <t>Caravana de Camelos</t>
   </si>
   <si>
     <t>Líder da Caravana</t>
@@ -1620,7 +1639,7 @@
     <t>Mestre do Vazio Ifrit</t>
   </si>
   <si>
-    <t>Guerreiro Corajoso</t>
+    <t>Guerrero Valente</t>
   </si>
   <si>
     <t>Mulher Resgatada</t>
@@ -1629,6 +1648,15 @@
     <t>Pintor Errante</t>
   </si>
   <si>
+    <t>Ifrit Carniceiro A</t>
+  </si>
+  <si>
+    <t>Ifrit Carniceiro B</t>
+  </si>
+  <si>
+    <t>Ifrit Carniceiro C</t>
+  </si>
+  <si>
     <t>Aldeão A</t>
   </si>
   <si>
@@ -1659,46 +1687,46 @@
     <t>Deusa do Rio</t>
   </si>
   <si>
-    <t>Viajante de Passagem</t>
-  </si>
-  <si>
-    <t>Cara Feroz A</t>
-  </si>
-  <si>
-    <t>Guarda Dakn</t>
-  </si>
-  <si>
-    <t>Guardião do Tesouro Dakn</t>
-  </si>
-  <si>
-    <t>Alfaiate</t>
+    <t>Viajante Passageiro</t>
+  </si>
+  <si>
+    <t>Homem Feroz A</t>
+  </si>
+  <si>
+    <t>Guardião do Tesouro de Dakn</t>
+  </si>
+  <si>
+    <t>Guarda de Dakn</t>
+  </si>
+  <si>
+    <t>Vendedor de Chapéus</t>
   </si>
   <si>
     <t>Desertor</t>
   </si>
   <si>
-    <t>Cavaleiro das Trevas</t>
-  </si>
-  <si>
-    <t>Chefe da Legião das Trevas</t>
-  </si>
-  <si>
-    <t>Líder do Forte Qebui (Posto Avançado Leste)</t>
+    <t>Cavaleiro Negro</t>
+  </si>
+  <si>
+    <t>Chefe da Legião Negra</t>
+  </si>
+  <si>
+    <t>Líder da Fortaleza Qebui (Posto Avançado Leste)</t>
   </si>
   <si>
     <t>Velho Rabugento</t>
   </si>
   <si>
-    <t>Forma de Dragão</t>
-  </si>
-  <si>
-    <t>Habitante da Vila Nebulosa</t>
+    <t>Forma do Dragão</t>
+  </si>
+  <si>
+    <t>Residente da Vila Nebulosa</t>
   </si>
   <si>
     <t>Ancião da Vila Nebulosa</t>
   </si>
   <si>
-    <t>Ancião do Vale dos Caçadores</t>
+    <t>Ancião do Vale do Caçador</t>
   </si>
   <si>
     <t>Chefe da Caravana</t>
@@ -1707,10 +1735,13 @@
     <t>Seguidor da Caravana</t>
   </si>
   <si>
-    <t>Bandido A</t>
-  </si>
-  <si>
-    <t>Bandido B</t>
+    <t>Líder dos Fora-da-lei</t>
+  </si>
+  <si>
+    <t>Fora-da-lei A</t>
+  </si>
+  <si>
+    <t>Fora-da-lei B</t>
   </si>
   <si>
     <t>Jovem A</t>
@@ -1719,9 +1750,6 @@
     <t>Jovem B</t>
   </si>
   <si>
-    <t>Mago Noor</t>
-  </si>
-  <si>
     <t>Lagarto Pequeno</t>
   </si>
   <si>
@@ -1764,7 +1792,7 @@
     <t>Homem Misterioso</t>
   </si>
   <si>
-    <t>Lorde Demônio</t>
+    <t>Senhor dos Demônios</t>
   </si>
   <si>
     <t>Pai de Yara</t>
@@ -1797,7 +1825,7 @@
     <t>Caçador</t>
   </si>
   <si>
-    <t>Espiritomancer?</t>
+    <t>Espíritomancer?</t>
   </si>
   <si>
     <t>Criança</t>
@@ -1809,84 +1837,59 @@
     <t>Tirano da Taverna</t>
   </si>
   <si>
-    <t>Ladrão da Taverna</t>
+    <t>Ladino da Taverna</t>
   </si>
   <si>
     <t>Herói da Taverna</t>
   </si>
   <si>
-    <t>Arbórea</t>
-  </si>
-  <si>
-    <t>默认:A estátua à minha frente brilha com uma luz fraca.
+    <t>默认:A estátua diante de mim brilha com uma luz fraca.
 故事礼物错误:Parece que não é esta.</t>
   </si>
   <si>
-    <t>故事礼物错误:Nada aconteceu...</t>
+    <t>故事礼物错误:Nada aconteceu…</t>
   </si>
   <si>
     <t>默认:Essas mercadorias precisam ser entregues em breve. O que devo fazer?</t>
   </si>
   <si>
-    <t>默认:(Seu braço esquerdo está firmemente enfaixado) Ah... a dor…</t>
-  </si>
-  <si>
-    <t>默认:(Ele tem bandagens por todo o corpo, a maioria delas encharcada de sangue).</t>
-  </si>
-  <si>
-    <t>默认:(Enquanto ele aplica remédio no abdômen inferior, você percebe que há uma ferida que quase atravessa todo o corpo dele. Parece que não está cicatrizando de jeito nenhum).</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Gosto de &lt;color=red&gt;música&lt;/color&gt; e algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ou &lt;color=red&gt;românticas&lt;/color&gt;. Emoções são muito importantes para um dançarino.
-hello:Eu gosto de dançar ~ Um dia eu vou dançar no grande palco da cidade de Jamal.
-refuse_recruit_0:Acho que realmente nos damos bem, mas... não vou desistir do meu sonho por você.
-refuse_recruit_1:Eu gosto de dançar. Se você quiser que eu lute... sinto muito.
-refuse_recruit_2: Você está falando sério? Ok. Tudo bem, contanto que você esteja brincando.
+    <t>默认:(O braço esquerdo deles está firmemente enfaixado) Oh... a dor…</t>
+  </si>
+  <si>
+    <t>默认:(Eles estão enfaixados por todo o corpo, a maioria deles ensopados de sangue).</t>
+  </si>
+  <si>
+    <t>默认:(Enquanto ele aplica remédio no baixo ventre, você percebe que há uma ferida que quase atravessa todo o seu corpo. Parece que não está cicatrizando de forma alguma).</t>
+  </si>
+  <si>
+    <t>默认:(Enquanto ele aplica remédio no baixo ventre, você nota que há uma ferida que quase atravessa todo o seu corpo. Parece que não está cicatrizando de forma alguma).</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Eu gosto de &lt;color=red&gt;música&lt;/color&gt; e gosto da &lt;color=red&gt;da dor e tristeza&lt;/color&gt; das pessoas. Emoções são muito importantes para um dançarino.
+hello:Eu gosto de dançar. Um dia eu vou dançar no grande palco da Cidade de Jamal.
+refuse_recruit_0:Eu acho que realmente nos damos bem, mas... eu não vou desistir do meu sonho por você.
+refuse_recruit_1:Eu gosto de dançar. Mas se você quer que eu lute... Desculpe, não posso.
+refuse_recruit_2:Você está falando sério? Ok. Tudo bem, contanto que você esteja brincando.
 refuse_recruit_3:Bem, eu não vou mentir para você. Eu não gosto muito de você.
-recruit_msg:Você vale a pena seguir. Vamos, espero que você me aconselhe no futuro.</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ressoam com a minha alma. Além disso, espero encontrar algum &lt;color=red&gt;equipamento especial&lt;/color&gt; para me ajudar na batalha.
-hello:O estilo de luta da minha família nunca morrerá enquanto eu estiver por perto.
-refuse_recruit_0:Você sabe que carrego uma grande responsabilidade. Não posso aceitar.
-refuse_recruit_1:Você não é o tipo de pessoa que admiro.
+recruit_msg:Você vale a pena seguir. Vamos lá, espero que você me aconselhe no futuro.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ressoam com a minha alma. Além disso, eu espero encontrar alguns &lt;color=red&gt;acessórios&lt;/color&gt; para me ajudar em batalha.
+hello:O estilo de luta da minha família nunca morrerá enquanto eu estiver vivo.
+refuse_recruit_0:Você sabe que carrego uma grande responsabilidade. Eu não posso aceitar.
+refuse_recruit_1:Você não é o tipo de pessoa que eu admiro.
 refuse_recruit_2:Não, e não pergunte novamente.
-refuse_recruit_3:Não consigo controlar minha raiva por muito mais tempo. Saia agora.
-recruit_msg:Está bem. Espero que você possa apresentar meu estilo de luta ao mundo inteiro.</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Gosto quando as pessoas estão &lt;color=red&gt;tristes e com dor&lt;/color&gt;. Também gosto de passar o tempo olhando para &lt;color=red&gt;pinturas&lt;/color&gt;.
-hello:Gosto da sua expressão sombria...
+refuse_recruit_3:Eu não consigo controlar minha raiva por muito mais tempo. Saia daqui agora.
+recruit_msg:Tudo bem. Espero que você possa apresentar meu estilo de luta para o mundo todo.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Eu gosto quando as pessoas estão &lt;color=red&gt;tristes e com dor&lt;/color&gt;. Também gosto de passar o tempo olhando &lt;color=red&gt;pinturas&lt;/color&gt;.
+hello:Eu gosto dessa sua expressão melancólica...
 refuse_recruit_0:Ei, você ainda não chegou lá.
-refuse_recruit_1:Ah... ainda não é suficiente para me fazer dobrar os joelhos.
+refuse_recruit_1:Ah... ainda não é o suficiente para que eu me curve para você.
 refuse_recruit_2:Você está delirando.
-refuse_recruit_3:Nem vale a pena gastar meus conhecimentos arcanos com você.
-recruit_msg:Espero que você possa me ajudar a colher mais dor e sofrimento.</t>
-  </si>
-  <si>
-    <t>Desc:Alaf Jahim era um mero jovem quando veio para o Grande Deserto para ganhar a vida como escolta de caravanas. Hoje, ele é bem conhecido como músculo para alugar. Ele escoltou tantos viajantes que não dá para contar; os bandidos que ele derrotou são numerosos demais para mencionar. Mas o tempo não poupou este herói. Alaf Jahim tem agora mais de 60 anos e não é tão enérgico como era na sua juventude. As tarefas de escolta mais difíceis estão lentamente se movendo para além de seu alcance, mas seu nome ainda causa medo nos corações dos bandidos. Seu status lendário entre as areias permanece.
-Voice:NpcVoice.helianqianbai
-BattleVoice:BattleVoice.helianqianbai</t>
-  </si>
-  <si>
-    <t>Like:音乐|浪漫|忧伤
-Desc:Umara gosta de música, romance e tristeza. Ela costuma dançar perto do rio, seu reflexo no rio é seu único público. Desde que era menina, Umara sonhava em se tornar uma dançarina real. Quando o velho rei foi derrubado, os Nasir ocuparam a cidade de Jamal, a antiga capital. Quando a guerra não terminou e a luta continuou, a cidade de Jamal continuou em constante alerta. Umara nem sabia como era a cidade de Jamal, nem tinha os papéis para ir lá. Ainda assim, Umara pratica todos os dias para poder se juntar ao grupo de artistas mais famoso da cidade e se tornar uma dançarina profissional. Quando ela estiver no maior palco da terra, a audiência abaixo dela conhecerá a maior felicidade.
-Voice:NpcVoice.xiyunna
-BattleVoice:BattleVoice.xiyunna</t>
-  </si>
-  <si>
-    <t>Like:特殊装备|忧伤
-Desc:Mathali nasceu em uma família mergulhada na guerra. Os membros da família podiam usar mana para fortalecer suas lâminas. Quando a guerra começou, a família de Mathali, que só se destacava em duelos, foi ignorada. Muitos membros da família tiveram que encontrar novas carreiras. Suas técnicas de luta únicas estavam à beira de serem perdidas para sempre. Mathali é o único jovem de sua geração que aprendeu a usar mana para lutar. Em seus ombros repousa não apenas o fardo de reviver a glória da família, mas também a missão de transmitir essas artes secretas.
-Voice:NpcVoice.hanjing
-BattleVoice:BattleVoice.hanjing</t>
-  </si>
-  <si>
-    <t>Like:绘画|忧伤
-WildMonsterKiller:1
-Robber:100
-Desc:Sanjay é um mago do outro lado do rio. Ele veio a esta terra para uma pesquisa macabra - como extrair poder arcano do caos da guerra, transformando dor e tragédia em sustento.
-Voice:NpcVoice.sajia
-BattleVoice:BattleVoice.sajia</t>
+refuse_recruit_3:Com você nem vale a pena gastar minhas habilidades mais inúteis.
+recruit_msg:Espero que você possa me ajudar a encontrar mais dor e sofrimento.</t>
   </si>
 </sst>
 </file>
@@ -2511,16 +2514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="G225" sqref="G225"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -2867,7 +2869,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -2880,7 +2882,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -2970,7 +2972,7 @@
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>70</v>
@@ -2983,23 +2985,23 @@
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>71</v>
+        <v>452</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="27">
       <c r="A33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>453</v>
@@ -3009,10 +3011,10 @@
     </row>
     <row r="34" spans="1:6" ht="27">
       <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>454</v>
@@ -3022,10 +3024,10 @@
     </row>
     <row r="35" spans="1:6" ht="27">
       <c r="A35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>455</v>
@@ -3035,36 +3037,36 @@
     </row>
     <row r="36" spans="1:6" ht="27">
       <c r="A36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="D36" s="5"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="27">
       <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="27">
       <c r="A38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>456</v>
@@ -3074,10 +3076,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>457</v>
@@ -3087,10 +3089,10 @@
     </row>
     <row r="40" spans="1:6" ht="27">
       <c r="A40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>458</v>
@@ -3100,10 +3102,10 @@
     </row>
     <row r="41" spans="1:6" ht="27">
       <c r="A41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>459</v>
@@ -3113,10 +3115,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>460</v>
@@ -3126,64 +3128,64 @@
     </row>
     <row r="43" spans="1:6" ht="54">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>461</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="54">
       <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E44" s="32" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="67.5">
       <c r="A45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>463</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="27">
       <c r="A46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>464</v>
@@ -3193,10 +3195,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>465</v>
@@ -3206,10 +3208,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>466</v>
@@ -3219,10 +3221,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>467</v>
@@ -3232,10 +3234,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>468</v>
@@ -3245,10 +3247,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>469</v>
@@ -3258,10 +3260,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>470</v>
@@ -3271,36 +3273,36 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>473</v>
@@ -3310,10 +3312,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>474</v>
@@ -3323,10 +3325,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>475</v>
@@ -3336,7 +3338,7 @@
     </row>
     <row r="58" spans="1:6" ht="27">
       <c r="A58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>35</v>
@@ -3349,10 +3351,10 @@
     </row>
     <row r="59" spans="1:6" ht="27">
       <c r="A59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>476</v>
@@ -3362,7 +3364,7 @@
     </row>
     <row r="60" spans="1:6" ht="27">
       <c r="A60" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>32</v>
@@ -3375,7 +3377,7 @@
     </row>
     <row r="61" spans="1:6" ht="27">
       <c r="A61" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>28</v>
@@ -3388,498 +3390,498 @@
     </row>
     <row r="62" spans="1:6" ht="40.5">
       <c r="A62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D62" s="5"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D63" s="5"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D64" s="5"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D65" s="5"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:7" ht="40.5">
       <c r="A68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D68" s="12"/>
       <c r="F68" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27">
       <c r="A69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D69" s="5"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="27">
       <c r="A70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C70" s="32" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D70" s="5"/>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:7" ht="27">
       <c r="A71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C71" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D71" s="5"/>
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D72" s="14"/>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>136</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>137</v>
       </c>
       <c r="D73" s="14"/>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:7" ht="27">
       <c r="A75" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C75" s="32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D75" s="15"/>
       <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D76" s="15"/>
       <c r="F76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D77" s="17"/>
       <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="D78" s="17"/>
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="27">
       <c r="A79" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="C79" s="32" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D79" s="17"/>
       <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="27">
       <c r="A80" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="C80" s="32" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D80" s="17"/>
       <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D81" s="17"/>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="D82" s="17"/>
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D83" s="17"/>
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="D84" s="17"/>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D85" s="17"/>
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>157</v>
       </c>
       <c r="D86" s="19"/>
       <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D87" s="19"/>
       <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:7" ht="40.5">
       <c r="A88" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D88" s="19"/>
       <c r="F88" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="27">
       <c r="A89" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D89" s="19"/>
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D90" s="19"/>
       <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:7" ht="27">
       <c r="A91" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D91" s="18"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D92" s="19"/>
       <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="27">
       <c r="A93" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D93" s="19"/>
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D94" s="19"/>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>168</v>
       </c>
       <c r="D95" s="19"/>
       <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>170</v>
       </c>
       <c r="D96" s="19"/>
       <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D97" s="19"/>
       <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="27">
       <c r="A98" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="C98" s="32" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D98" s="19"/>
       <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="27">
       <c r="A99" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>37</v>
@@ -3892,36 +3894,36 @@
     </row>
     <row r="100" spans="1:6" ht="27">
       <c r="A100" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>176</v>
-      </c>
       <c r="C100" s="32" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D100" s="19"/>
       <c r="F100" s="19"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D101" s="19"/>
       <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:6" ht="22.5">
       <c r="A102" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>434</v>
@@ -3929,32 +3931,32 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>181</v>
-      </c>
       <c r="C103" s="32" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="22.5">
       <c r="A105" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>434</v>
@@ -3962,697 +3964,697 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="27">
       <c r="A107" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D107" s="5"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>187</v>
       </c>
       <c r="D108" s="5"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>189</v>
       </c>
       <c r="D109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D112" s="5"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" ht="27">
       <c r="A113" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D113" s="5"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D114" s="5"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="C117" s="32" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="27">
       <c r="A118" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D118" s="14"/>
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D120" s="14"/>
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D121" s="14"/>
       <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>205</v>
+        <v>521</v>
       </c>
       <c r="D122" s="14"/>
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="D123" s="14"/>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>209</v>
+        <v>523</v>
       </c>
       <c r="D124" s="14"/>
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D125" s="5"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D126" s="5"/>
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D127" s="5"/>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D128" s="5"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D129" s="5"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="22.5">
       <c r="A130" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" ht="27">
       <c r="A142" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="27">
       <c r="A143" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D143" s="24"/>
       <c r="F143" s="24"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D144" s="24"/>
       <c r="F144" s="24"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D145" s="24"/>
       <c r="F145" s="24"/>
     </row>
     <row r="146" spans="1:6" ht="27">
       <c r="A146" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D146" s="24"/>
       <c r="F146" s="24"/>
     </row>
     <row r="147" spans="1:6" ht="27">
       <c r="A147" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D147" s="24"/>
       <c r="F147" s="24"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D148" s="24"/>
       <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" ht="27">
       <c r="A149" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D149" s="24"/>
       <c r="F149" s="24"/>
     </row>
     <row r="150" spans="1:6" ht="27">
       <c r="A150" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D150" s="24"/>
       <c r="F150" s="24"/>
     </row>
     <row r="151" spans="1:6" ht="27">
       <c r="A151" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D151" s="24"/>
       <c r="F151" s="24"/>
     </row>
     <row r="152" spans="1:6" ht="27">
       <c r="A152" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D152" s="24"/>
       <c r="F152" s="24"/>
     </row>
     <row r="153" spans="1:6" ht="27">
       <c r="A153" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D153" s="24"/>
       <c r="F153" s="24"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D154" s="24"/>
       <c r="F154" s="24"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D155" s="24"/>
       <c r="F155" s="24"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D156" s="5"/>
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D157" s="25"/>
       <c r="F157" s="25"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D158" s="25"/>
       <c r="F158" s="25"/>
     </row>
     <row r="159" spans="1:6" ht="27">
       <c r="A159" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D159" s="25"/>
       <c r="F159" s="25"/>
     </row>
     <row r="160" spans="1:6" ht="27">
       <c r="A160" s="25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>70</v>
@@ -4665,920 +4667,920 @@
     </row>
     <row r="161" spans="1:7" ht="27">
       <c r="A161" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D161" s="25"/>
       <c r="F161" s="25"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D162" s="25"/>
       <c r="F162" s="25"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D163" s="25"/>
       <c r="F163" s="25"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D164" s="25"/>
       <c r="F164" s="25"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D165" s="25"/>
       <c r="F165" s="25"/>
     </row>
     <row r="166" spans="1:7" ht="81">
       <c r="A166" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:7" ht="94.5">
       <c r="A167" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:7" ht="175.5">
       <c r="A168" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:7" ht="175.5">
       <c r="A169" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:7" ht="27">
       <c r="A170" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D170" s="5"/>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:7" ht="27">
       <c r="A171" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:7" ht="175.5">
+    <row r="172" spans="1:7" ht="81">
       <c r="A172" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="32" t="s">
-        <v>542</v>
+        <v>272</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>547</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:7" ht="409.5">
       <c r="A173" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D173" s="27"/>
       <c r="F173" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G173" s="33" t="s">
-        <v>591</v>
+        <v>276</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="27">
       <c r="A174" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D174" s="5"/>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:7" ht="27">
       <c r="A175" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D175" s="5"/>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>434</v>
+        <v>550</v>
       </c>
       <c r="D176" s="5"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:7" ht="27">
       <c r="A177" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D177" s="5"/>
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:7" ht="27">
       <c r="A178" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D178" s="5"/>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:7" ht="27">
       <c r="A179" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D179" s="5"/>
       <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:7" ht="27">
       <c r="A180" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="27">
       <c r="A181" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D181" s="5"/>
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:7" ht="27">
       <c r="A182" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>546</v>
+        <v>287</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>552</v>
       </c>
       <c r="D182" s="5"/>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D183" s="27"/>
       <c r="F183" s="27"/>
     </row>
     <row r="184" spans="1:7" ht="94.5">
       <c r="A184" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D184" s="27"/>
       <c r="F184" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D185" s="5"/>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D186" s="5"/>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D187" s="5"/>
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="D188" s="5"/>
       <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D189" s="5"/>
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:7" ht="27">
       <c r="A190" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D190" s="5"/>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:7" ht="27">
       <c r="A191" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D191" s="19"/>
       <c r="F191" s="19"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D192" s="19"/>
       <c r="F192" s="19"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D193" s="19"/>
       <c r="F193" s="19"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D194" s="19"/>
       <c r="F194" s="19"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D195" s="5"/>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="27">
       <c r="A196" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D196" s="5"/>
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D197" s="25"/>
       <c r="F197" s="25"/>
     </row>
     <row r="198" spans="1:6" ht="27">
       <c r="A198" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D198" s="14"/>
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6" ht="27">
       <c r="A199" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D199" s="14"/>
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D200" s="14"/>
       <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D201" s="5"/>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D202" s="5"/>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D203" s="14"/>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6" ht="27">
       <c r="A204" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" ht="27">
       <c r="A205" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="27">
       <c r="A206" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" ht="27">
       <c r="A207" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D207" s="14"/>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6" ht="27">
       <c r="A208" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D208" s="14"/>
       <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D209" s="2"/>
       <c r="F209" s="29"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D210" s="2"/>
       <c r="F210" s="29"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D211" s="2"/>
       <c r="F211" s="29"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D212" s="2"/>
       <c r="F212" s="29"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D213" s="5"/>
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D214" s="5"/>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D215" s="5"/>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:7" ht="409.5">
       <c r="A216" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="F216" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="B216" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C216" s="32" t="s">
+      <c r="G216" s="32" t="s">
         <v>354</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="E216" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="F216" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G216" s="33" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="54">
       <c r="A217" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C217" s="32" t="s">
         <v>475</v>
       </c>
       <c r="D217" s="5"/>
       <c r="F217" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G217" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="27">
       <c r="A218" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D218" s="5"/>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:7" ht="54">
       <c r="A219" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C219" s="32" t="s">
-        <v>564</v>
+        <v>360</v>
+      </c>
+      <c r="C219" s="33" t="s">
+        <v>569</v>
       </c>
       <c r="D219" s="5"/>
       <c r="F219" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="409.5">
       <c r="A220" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C220" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B220" s="26" t="s">
+      <c r="D220" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="C220" s="32" t="s">
+      <c r="E220" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="F220" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D220" s="27" t="s">
+      <c r="G220" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="F220" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G220" s="33" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C221" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C221" s="32" t="s">
-        <v>370</v>
       </c>
       <c r="D221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="C222" s="32" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:7" ht="27">
       <c r="A224" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C224" s="32" t="s">
-        <v>567</v>
+        <v>373</v>
+      </c>
+      <c r="C224" s="33" t="s">
+        <v>572</v>
       </c>
       <c r="D224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="409.5">
       <c r="A225" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B225" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="C225" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="C225" s="32" t="s">
+      <c r="D225" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="E225" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F225" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E225" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="F225" s="27" t="s">
+      <c r="G225" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="G225" s="33" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5628,7 +5630,7 @@
         <v>386</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D229" s="5"/>
       <c r="F229" s="5"/>
@@ -5654,7 +5656,7 @@
         <v>389</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D231" s="5"/>
       <c r="F231" s="5"/>
@@ -5667,7 +5669,7 @@
         <v>390</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D232" s="5"/>
       <c r="F232" s="5"/>
@@ -5693,7 +5695,7 @@
         <v>393</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D234" s="5"/>
       <c r="F234" s="5"/>
@@ -5719,7 +5721,7 @@
         <v>396</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D236" s="5"/>
       <c r="F236" s="5"/>
@@ -5750,7 +5752,7 @@
         <v>400</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D238" s="5"/>
       <c r="F238" s="5"/>
@@ -5763,7 +5765,7 @@
         <v>401</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D239" s="5"/>
       <c r="F239" s="5"/>
@@ -5789,7 +5791,7 @@
         <v>404</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D241" s="5"/>
       <c r="F241" s="5"/>
@@ -5802,7 +5804,7 @@
         <v>406</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D242" s="5"/>
       <c r="F242" s="5"/>
@@ -5872,7 +5874,7 @@
         <v>416</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D247" s="5"/>
       <c r="F247" s="5"/>
@@ -5885,7 +5887,7 @@
         <v>417</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D248" s="2"/>
       <c r="F248" s="2"/>
@@ -5898,7 +5900,7 @@
         <v>418</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D249" s="5"/>
       <c r="F249" s="2" t="s">
@@ -5916,7 +5918,7 @@
         <v>420</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D250" s="5"/>
       <c r="F250" s="2" t="s">
@@ -5934,7 +5936,7 @@
         <v>422</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D251" s="5"/>
       <c r="F251" s="2" t="s">
@@ -5988,7 +5990,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>581</v>
+        <v>440</v>
       </c>
       <c r="D254" s="5"/>
       <c r="F254" s="5" t="s">
@@ -6018,5 +6020,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>